--- a/python/quiz/correct_questions.xlsx
+++ b/python/quiz/correct_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,67 +441,137 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Correct Answer</t>
+          <t>True/False</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A rendszer megfigyelhető, ha a megfigyelhetőségi mátrix rangja megegyezik az állapotváltozók számával.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Igaz</t>
-        </is>
+          <t>Egy bemenetű és egy kimenetű rendszer esetén az állapot-visszacsatolás eredményeképp létrejövő irányítójel vektor.</t>
+        </is>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A rendszer megfigyelhető, ha a megfigyelhetőségi mátrix rangja kisebb az állapotváltozók számánál.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Hamis</t>
-        </is>
+          <t>A pólusáthelyezés módosítja a sajátértékeket és a zérusokat is.</t>
+        </is>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A legkisebb négyzetek módszere a négyzetes hibát minimalizálja.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Igaz</t>
-        </is>
+          <t>Állapot-visszacsatolással közvetlenül a zárt rendszer dinamikáját tudjuk meghatározni.</t>
+        </is>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ha egy lineáris rendszer bemenetére  körfrekvenciájú szinuszos jelet kapcsolunk, akkor a válaszjel is szinuszos, melynek körfrekvenciája szintén .</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Igaz</t>
-        </is>
+          <t>Optimális szabályozás során egy funkcionált minimalizálunk.</t>
+        </is>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Állapot-visszacsatolással a rendszer dinamikájára nincs hatásunk.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hamis</t>
+          <t>Az állapottranszformáció a rendszer bemenet-kimenet kapcsolatát nem változtatja meg.</t>
+        </is>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A Bass-Gura-algoritmust célszerű alkalmazni a megfigyelőtervezésben, mert az nem használja fel a megfigyelhetőségi mátrix inverzét.</t>
+        </is>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pólusáthelyezésnél, folytonos idejű rendszer esetén, célszerű a sajátértékeket a komplex számsík jobb oldalára tervezni.</t>
+        </is>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Optimális irányítás során egy funkcionált minimalizálunk.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pólusáthelyezésnél, folytonos idejű rendszer esetén, célszerű a sajátértékeket a komplex számsík bal oldalára tervezni.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MIMO-rendszer esetén az állapot-visszacsatolás eredményeképp létrejövő irányítójel egy mátrix.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SISO rendszer állapotvisszacsatoláson alapuló irányítása során az irányítójel u=-kTx.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Az optimális irányítás költségfüggvényét a matematika nyelvén funkcionálnak nevezzük.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>

--- a/python/quiz/correct_questions.xlsx
+++ b/python/quiz/correct_questions.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="True_False" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fill_in_the_blank" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Statement</t>
+          <t>Statements</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -448,130 +449,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egy bemenetű és egy kimenetű rendszer esetén az állapot-visszacsatolás eredményeképp létrejövő irányítójel vektor.</t>
-        </is>
-      </c>
-      <c r="B2" t="b">
-        <v>0</v>
+          <t>A Kálmán-szűrő egy observer.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A pólusáthelyezés módosítja a sajátértékeket és a zérusokat is.</t>
-        </is>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
+          <t>A folyamatidentifikáció során a rendszermodell paramétereit határozzuk meg.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sentences</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Words</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A(z) ……………………. azt adja meg hogy szinuszos bemeneti jel esetén a rendszer milyen mértékben változtatja meg a bemenőjel kezdőfázisát.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>fáziskarakterisztika</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A(z) ……………….. zárt láncú irányítás.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>szabályozás</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Állapot-visszacsatolással közvetlenül a zárt rendszer dinamikáját tudjuk meghatározni.</t>
-        </is>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Optimális szabályozás során egy funkcionált minimalizálunk.</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Az állapottranszformáció a rendszer bemenet-kimenet kapcsolatát nem változtatja meg.</t>
-        </is>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A Bass-Gura-algoritmust célszerű alkalmazni a megfigyelőtervezésben, mert az nem használja fel a megfigyelhetőségi mátrix inverzét.</t>
-        </is>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Pólusáthelyezésnél, folytonos idejű rendszer esetén, célszerű a sajátértékeket a komplex számsík jobb oldalára tervezni.</t>
-        </is>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Optimális irányítás során egy funkcionált minimalizálunk.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Pólusáthelyezésnél, folytonos idejű rendszer esetén, célszerű a sajátértékeket a komplex számsík bal oldalára tervezni.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MIMO-rendszer esetén az állapot-visszacsatolás eredményeképp létrejövő irányítójel egy mátrix.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SISO rendszer állapotvisszacsatoláson alapuló irányítása során az irányítójel u=-kTx.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Az optimális irányítás költségfüggvényét a matematika nyelvén funkcionálnak nevezzük.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>True</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A folyamat bemenőjele a(z) ………………… .</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>beavatkozó jel</t>
         </is>
       </c>
     </row>
